--- a/StructureDefinition-ext-R5-ActivityDefinition.participant.xlsx
+++ b/StructureDefinition-ext-R5-ActivityDefinition.participant.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1061" uniqueCount="173">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -413,7 +413,7 @@
     <t>The type of participant in the activity.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-action-participant-type-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-action-participant-type-for-R4</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -452,7 +452,7 @@
     <t>Extension.extension:typeCanonical.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-CapabilityStatement|0.0.1-snapshot-3|CapabilityStatement|4.0.1)
+    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-CapabilityStatement|CapabilityStatement)
 </t>
   </si>
   <si>
@@ -485,7 +485,7 @@
     <t>Extension.extension:typeReference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|0.0.1-snapshot-3|CareTeam|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|0.0.1-snapshot-3|Device|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-DeviceDefinition|0.0.1-snapshot-3|DeviceDefinition|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Endpoint|0.0.1-snapshot-3|Endpoint|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Group|0.0.1-snapshot-3|Group|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-HealthcareService|0.0.1-snapshot-3|HealthcareService|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|0.0.1-snapshot-3|Location|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|0.0.1-snapshot-3|Organization|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|0.0.1-snapshot-3|Patient|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|0.0.1-snapshot-3|Practitioner|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|0.0.1-snapshot-3|PractitionerRole|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|0.0.1-snapshot-3|RelatedPerson|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-CareTeam|CareTeam|http://hl7.org/fhir/5.0/StructureDefinition/profile-Device|Device|http://hl7.org/fhir/5.0/StructureDefinition/profile-DeviceDefinition|DeviceDefinition|http://hl7.org/fhir/5.0/StructureDefinition/profile-Endpoint|Endpoint|http://hl7.org/fhir/5.0/StructureDefinition/profile-Group|Group|http://hl7.org/fhir/5.0/StructureDefinition/profile-HealthcareService|HealthcareService|http://hl7.org/fhir/5.0/StructureDefinition/profile-Location|Location|http://hl7.org/fhir/5.0/StructureDefinition/profile-Organization|Organization|http://hl7.org/fhir/5.0/StructureDefinition/profile-Patient|Patient|http://hl7.org/fhir/5.0/StructureDefinition/profile-Practitioner|Practitioner|http://hl7.org/fhir/5.0/StructureDefinition/profile-PractitionerRole|PractitionerRole|http://hl7.org/fhir/5.0/StructureDefinition/profile-RelatedPerson|RelatedPerson)
 </t>
   </si>
   <si>
@@ -522,15 +522,6 @@
   <si>
     <t xml:space="preserve">CodeableConcept
 </t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Defines roles played by participants for the action.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-action-participant-role-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:function</t>
@@ -921,8 +912,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="41.30078125" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="76.3203125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="31.0078125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="57.82421875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -3411,13 +3402,13 @@
         <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>160</v>
+        <v>77</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>161</v>
+        <v>77</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>162</v>
+        <v>77</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>77</v>
@@ -3455,13 +3446,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B25" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C25" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D25" t="s" s="2">
         <v>77</v>
@@ -3486,14 +3477,14 @@
         <v>93</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>77</v>
@@ -3562,7 +3553,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>105</v>
@@ -3665,7 +3656,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>107</v>
@@ -3770,7 +3761,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>113</v>
@@ -3813,7 +3804,7 @@
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>77</v>
@@ -3875,7 +3866,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>122</v>
@@ -3904,10 +3895,10 @@
         <v>159</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -4109,13 +4100,13 @@
         <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
